--- a/SecHos/src/main/resources/templates/excelTemplate/填报信息表全部.xlsx
+++ b/SecHos/src/main/resources/templates/excelTemplate/填报信息表全部.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_MyProject\2021\wuxieryuan\SecHosJava\SecHos\src\main\resources\templates\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A7A5BA-833C-4FD6-93A9-5BC114D3E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B6D2E7-87F4-4C89-AD02-09090517F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="I1000")
+jx:area(lastCell="J1000")
 </t>
         </r>
       </text>
@@ -68,7 +68,24 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="data" var="item" lastCell="I3")
+jx:each(items="data" var="item" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>J</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3")
 </t>
         </r>
       </text>
@@ -78,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>填报信息表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -153,6 +170,10 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.sq}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +237,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -604,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,10 +647,11 @@
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -636,7 +664,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,8 +692,11 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,6 +723,9 @@
       </c>
       <c r="I3" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
